--- a/templates_es/final_PhysicalAppearance.xlsx
+++ b/templates_es/final_PhysicalAppearance.xlsx
@@ -527,7 +527,7 @@
     <t>Who calls the police when the store is robbed?</t>
   </si>
   <si>
-    <t>¿Quién llamó a la polícia cuando estaban robando en la tienda?</t>
+    <t>¿Quién llamó a la policía cuando estaban robando en la tienda?</t>
   </si>
   <si>
     <t>The individual with {{NAME2}}</t>
@@ -2823,7 +2823,7 @@
       <c r="Y11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AA11" s="6" t="s">
